--- a/Verification/Demand_Supply.xlsx
+++ b/Verification/Demand_Supply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvand\PycharmProjects\OR-Assignment\Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC44EC99-F7C1-46CE-B861-0FE34AD09ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B61CE7-F568-4C5D-B694-414B61382FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58074866-BA5D-42E1-B8C8-6B81E0F36211}"/>
   </bookViews>
@@ -240,16 +240,16 @@
     <t>KL6</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="11">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="12">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>25</v>
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
